--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T01:19:57+00:00</t>
+    <t>2021-11-16T04:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T04:51:36+00:00</t>
+    <t>2021-11-17T13:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T13:47:01+00:00</t>
+    <t>2021-11-18T22:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T22:04:47+00:00</t>
+    <t>2021-11-19T00:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:04:47+00:00</t>
+    <t>2021-11-19T00:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:13:18+00:00</t>
+    <t>2021-11-19T18:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:00:23+00:00</t>
+    <t>2021-11-19T18:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:02:16+00:00</t>
+    <t>2021-11-19T21:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T21:14:24+00:00</t>
+    <t>2021-11-22T14:07:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:07:32+00:00</t>
+    <t>2021-11-22T14:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:10:59+00:00</t>
+    <t>2021-11-23T21:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T21:25:23+00:00</t>
+    <t>2021-11-24T19:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T19:02:36+00:00</t>
+    <t>2021-11-24T22:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T22:31:44+00:00</t>
+    <t>2021-11-30T21:05:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T21:05:25+00:00</t>
+    <t>2021-12-08T16:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T16:36:19+00:00</t>
+    <t>2021-12-14T20:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T20:47:31+00:00</t>
+    <t>2022-03-11T19:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:19:27+00:00</t>
+    <t>2022-03-11T19:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:55:52+00:00</t>
+    <t>2022-04-11T17:12:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:12:20+00:00</t>
+    <t>2022-04-12T17:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>observation code</t>
+    <t>Observation codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:10:33+00:00</t>
+    <t>2022-05-18T17:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>4</t>
+    <t>25</t>
   </si>
   <si>
     <t>Level</t>
@@ -135,58 +135,154 @@
     <t>1</t>
   </si>
   <si>
-    <t>CGH</t>
-  </si>
-  <si>
-    <t>cgh</t>
-  </si>
-  <si>
-    <t>Comparative genomic hybridization</t>
+    <t>OBSG</t>
+  </si>
+  <si>
+    <t>General Observation</t>
   </si>
   <si>
     <t>INDIC</t>
   </si>
   <si>
-    <t>indications</t>
-  </si>
-  <si>
-    <t>Diagnostic hypothesis (s)</t>
+    <t>Indication</t>
   </si>
   <si>
     <t>INVES</t>
   </si>
   <si>
-    <t>investigations</t>
-  </si>
-  <si>
-    <t>Clinical summary with all the investigations carried out in the context of the patient's pathology</t>
-  </si>
-  <si>
-    <t>PHENO</t>
-  </si>
-  <si>
-    <t>phenotype</t>
-  </si>
-  <si>
-    <t>Clinical sign observed in the patient - reported by the doctor following the physical examination or questioning of the patient</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>ethnicity</t>
-  </si>
-  <si>
-    <t>Concepts classifying people living in Quebec in a named category of humans sharing a common history, geographic origin or nationality. The ethnic codes used to represent these concepts are based on a list provided by the genomic sequencing center</t>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>BMUS</t>
+  </si>
+  <si>
+    <t>Muscle biopsy</t>
+  </si>
+  <si>
+    <t>BMET</t>
+  </si>
+  <si>
+    <t>Metabolic work-up</t>
+  </si>
+  <si>
+    <t>CKIN</t>
+  </si>
+  <si>
+    <t>Serum creatine kinase</t>
+  </si>
+  <si>
+    <t>CAAP</t>
+  </si>
+  <si>
+    <t>Plasma amino acid chromatography</t>
+  </si>
+  <si>
+    <t>ACYL</t>
+  </si>
+  <si>
+    <t>Acylcarnitines</t>
+  </si>
+  <si>
+    <t>IRMC</t>
+  </si>
+  <si>
+    <t>Cerebral MRI</t>
+  </si>
+  <si>
+    <t>IRMM</t>
+  </si>
+  <si>
+    <t>Muscle MRI</t>
+  </si>
+  <si>
+    <t>SRMN</t>
+  </si>
+  <si>
+    <t>NMR Spectroscopy</t>
+  </si>
+  <si>
+    <t>ECAR</t>
+  </si>
+  <si>
+    <t>Cardiac Ultrasound</t>
+  </si>
+  <si>
+    <t>EABD</t>
+  </si>
+  <si>
+    <t>Abdominal Ultrasound</t>
+  </si>
+  <si>
+    <t>EEG</t>
+  </si>
+  <si>
+    <t>Electroencephalogram (EEG)</t>
+  </si>
+  <si>
+    <t>EMG</t>
+  </si>
+  <si>
+    <t>Electromyography (EMG)</t>
+  </si>
+  <si>
+    <t>OPHT</t>
+  </si>
+  <si>
+    <t>Ophthalmological Examination</t>
   </si>
   <si>
     <t>CONS</t>
   </si>
   <si>
-    <t>consanguinity</t>
-  </si>
-  <si>
-    <t>Information if the parents are consanguineous</t>
+    <t>Consanguinity</t>
+  </si>
+  <si>
+    <t>DSTA</t>
+  </si>
+  <si>
+    <t>Patient Disease Status</t>
+  </si>
+  <si>
+    <t>CTGR</t>
+  </si>
+  <si>
+    <t>CTG Repeat Testing (Steinert Disease)</t>
+  </si>
+  <si>
+    <t>GCNR</t>
+  </si>
+  <si>
+    <t>GCN Repeat Testing (oculopharyngeal muscular dystrophy)</t>
+  </si>
+  <si>
+    <t>TGDD</t>
+  </si>
+  <si>
+    <t>Deletions and Duplications Testing (Duchenne and Becker dystrophies)</t>
+  </si>
+  <si>
+    <t>TSXF</t>
+  </si>
+  <si>
+    <t>Fragile X Syndrome Testing</t>
+  </si>
+  <si>
+    <t>MFTH</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>MMTH</t>
+  </si>
+  <si>
+    <t>Missing Father</t>
+  </si>
+  <si>
+    <t>ETHN</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
   </si>
 </sst>
 </file>
@@ -491,7 +587,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -521,79 +617,295 @@
       <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="C10" t="s" s="2">
         <v>57</v>
       </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T17:38:26+00:00</t>
+    <t>2022-05-18T18:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:03:18+00:00</t>
+    <t>2022-05-18T18:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:24:05+00:00</t>
+    <t>2022-05-18T18:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:38:41+00:00</t>
+    <t>2022-05-18T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T18:56:15+00:00</t>
+    <t>2022-05-18T19:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:09:53+00:00</t>
+    <t>2022-05-18T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:16:13+00:00</t>
+    <t>2022-05-18T19:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:30:31+00:00</t>
+    <t>2022-05-18T19:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T19:33:24+00:00</t>
+    <t>2022-05-19T03:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T03:16:26+00:00</t>
+    <t>2022-05-19T05:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:06:22+00:00</t>
+    <t>2022-05-19T05:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T05:30:54+00:00</t>
+    <t>2022-07-20T15:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:49:15+00:00</t>
+    <t>2022-07-20T15:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:55:58+00:00</t>
+    <t>2022-07-26T14:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>PHEN</t>
+  </si>
+  <si>
+    <t>Clinical Sign (HPO)</t>
   </si>
 </sst>
 </file>
@@ -587,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -907,6 +913,18 @@
       </c>
       <c r="D26" s="2"/>
     </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T14:00:32+00:00</t>
+    <t>2022-11-10T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T16:33:20+00:00</t>
+    <t>2022-11-13T16:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-13T16:06:14+00:00</t>
+    <t>2022-11-16T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:22:04+00:00</t>
+    <t>2022-11-16T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,13 +267,13 @@
     <t>Fragile X Syndrome Testing</t>
   </si>
   <si>
+    <t>MMTH</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
     <t>MFTH</t>
-  </si>
-  <si>
-    <t>Missing Mother</t>
-  </si>
-  <si>
-    <t>MMTH</t>
   </si>
   <si>
     <t>Missing Father</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:33:27+00:00</t>
+    <t>2022-12-09T19:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T19:20:55+00:00</t>
+    <t>2022-12-09T21:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T21:34:05+00:00</t>
+    <t>2023-01-23T16:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>Deletions and Duplications Testing (Duchenne and Becker dystrophies)</t>
+  </si>
+  <si>
+    <t>CGH</t>
+  </si>
+  <si>
+    <t>Comparative Genomic Hybridization</t>
   </si>
   <si>
     <t>TSXF</t>
@@ -593,7 +599,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -925,6 +931,18 @@
       </c>
       <c r="D27" s="2"/>
     </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:13:19+00:00</t>
+    <t>2023-01-27T17:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T17:12:17+00:00</t>
+    <t>2023-01-30T21:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:30:05+00:00</t>
+    <t>2023-02-09T16:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T16:19:35+00:00</t>
+    <t>2023-02-14T19:15:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T19:15:12+00:00</t>
+    <t>2023-02-20T18:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:51:53+00:00</t>
+    <t>2023-02-20T18:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T18:59:33+00:00</t>
+    <t>2023-02-20T19:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T19:32:51+00:00</t>
+    <t>2023-02-21T11:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:59:56+00:00</t>
+    <t>2023-02-21T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T12:43:59+00:00</t>
+    <t>2023-02-28T17:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T17:04:12+00:00</t>
+    <t>2023-03-09T16:02:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:02:20+00:00</t>
+    <t>2023-03-09T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:05:10+00:00</t>
+    <t>2023-03-09T21:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T21:27:23+00:00</t>
+    <t>2023-03-10T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:30:38+00:00</t>
+    <t>2023-03-10T16:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:37:58+00:00</t>
+    <t>2023-03-10T16:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:43:52+00:00</t>
+    <t>2023-03-16T01:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:14:24+00:00</t>
+    <t>2023-03-16T01:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T01:23:31+00:00</t>
+    <t>2023-03-21T11:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T11:43:18+00:00</t>
+    <t>2023-04-04T14:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T14:29:08+00:00</t>
+    <t>2023-05-30T18:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T18:28:01+00:00</t>
+    <t>2023-07-19T14:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,10 +416,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T14:01:19+00:00</t>
+    <t>2023-08-02T16:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T16:54:26+00:00</t>
+    <t>2023-10-18T17:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:21:54+00:00</t>
+    <t>2023-11-09T20:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:21:55+00:00</t>
+    <t>2023-11-27T16:21:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T16:21:02+00:00</t>
+    <t>2024-03-01T18:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T18:52:33+00:00</t>
+    <t>2024-03-19T14:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T14:09:21+00:00</t>
+    <t>2024-03-25T15:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:25:45+00:00</t>
+    <t>2024-03-28T12:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:52:30+00:00</t>
+    <t>2024-05-09T16:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:24:25+00:00</t>
+    <t>2024-05-09T16:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-observation-code.xlsx
+++ b/ig/CodeSystem-observation-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:30:56+00:00</t>
+    <t>2024-06-10T12:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,25 +156,25 @@
     <t>BMUS</t>
   </si>
   <si>
-    <t>Muscle biopsy</t>
+    <t>Muscle Biopsy</t>
   </si>
   <si>
     <t>BMET</t>
   </si>
   <si>
-    <t>Metabolic work-up</t>
+    <t>Metabolic Work-Up</t>
   </si>
   <si>
     <t>CKIN</t>
   </si>
   <si>
-    <t>Serum creatine kinase</t>
+    <t>Serum Creatine Kinase</t>
   </si>
   <si>
     <t>CAAP</t>
   </si>
   <si>
-    <t>Plasma amino acid chromatography</t>
+    <t>Plasma Amino Acid Chromatography</t>
   </si>
   <si>
     <t>ACYL</t>
@@ -252,13 +252,13 @@
     <t>GCNR</t>
   </si>
   <si>
-    <t>GCN Repeat Testing (oculopharyngeal muscular dystrophy)</t>
+    <t>GCN Repeat Testing (Oculopharyngeal Muscular Dystrophy)</t>
   </si>
   <si>
     <t>TGDD</t>
   </si>
   <si>
-    <t>Deletions and Duplications Testing (Duchenne and Becker dystrophies)</t>
+    <t>Deletions and Duplications Testing (Duchenne and Becker Dystrophies)</t>
   </si>
   <si>
     <t>CGH</t>
